--- a/31jul_fix83-125/china_dir_2024-p83-125_v3.xlsx
+++ b/31jul_fix83-125/china_dir_2024-p83-125_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasfiller/dev/china_directory/31jul_fix83-125/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9941D9FB-DF33-9546-92FF-F0B92373E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9B254-CC6F-0049-97C9-96568DBE3830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="760" windowWidth="29140" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4721,6 +4721,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5067,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
